--- a/biology/Botanique/Rävala_puiestee/Rävala_puiestee.xlsx
+++ b/biology/Botanique/Rävala_puiestee/Rävala_puiestee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A4vala_puiestee</t>
+          <t>Rävala_puiestee</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le boulevard Rävala (en estonien : Rävala puiestee), de 1950 à 1991 boulevard Lénine (en estonien : Lenini puiestee) est une rue Tallinn en Estonie[1],[2],[3],[4].
+Le boulevard Rävala (en estonien : Rävala puiestee), de 1950 à 1991 boulevard Lénine (en estonien : Lenini puiestee) est une rue Tallinn en Estonie.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A4vala_puiestee</t>
+          <t>Rävala_puiestee</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rävala puistee traverse les trois quartiers de Südalinn, Sibulaküla et Maakri de l'arrondissement Kesklinn[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rävala puistee traverse les trois quartiers de Südalinn, Sibulaküla et Maakri de l'arrondissement Kesklinn.
 Rävala puiestee commence à l'intersection de Liivalaia tänav, puis elle croise les rues Tornimäe tänav, Kivisilla tänav, Ants Laikmaa tänav, Kaubamaja tänav, Ants Lauteri tänav, Teatri väljak, Lembitu tänav, Krooni tänav et Kentmanni tänav.
-Elle se termine en croisant Tatari tänav après un parcours de 866 mètres[6].
+Elle se termine en croisant Tatari tänav après un parcours de 866 mètres.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A4vala_puiestee</t>
+          <t>Rävala_puiestee</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,22 +559,24 @@
           <t>Bâtiments de la rue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rävala puiestee 2, Kivisilla 8 - Immeuble de bureaux[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rävala puiestee 2, Kivisilla 8 - Immeuble de bureaux.
 Ravala puiestee 3 - Radisson Collection Tallinn
-Rävala puiestee 4, Laikmaa 15 - Maison de l'Union européenne (et)[7]
+Rävala puiestee 4, Laikmaa 15 - Maison de l'Union européenne (et)
 Rävala puiestee 5 - Immeuble de bureaux
-Rävala puiestee 6 - Immeuble de bureaux[7]
+Rävala puiestee 6 - Immeuble de bureaux
 Rävala puiestee 7 - Immeuble résidentiel
 Rävala puiestee 8 - Maison des créateurs (et)
-Rävala pst 9, place d'Islande 1 - Ministère des Affaires étrangères[7]
+Rävala pst 9, place d'Islande 1 - Ministère des Affaires étrangères
 Rävala puiestee 10, Teatri väljak 5 - Bibliothèque académique de l'Université de Tallinn
 Rävala puiestee 11-13-15 - Maison des scientifiques
 Rävala puiestee 12, Estonia puiestee 9 - Solarise keskus
 Rävala puiestee 14, Bâtiment du Ministère de la Défense
 Tatari tänav 13, Rävala puiestee 16, Académie estonienne de musique et de théâtre
-Rävala puiestee 19, Merko maja, immeuble résidentiel[7].</t>
+Rävala puiestee 19, Merko maja, immeuble résidentiel.</t>
         </is>
       </c>
     </row>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A4vala_puiestee</t>
+          <t>Rävala_puiestee</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,9 +604,11 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lignes de bus n° 2 et 15 empruntent la rue[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lignes de bus n° 2 et 15 empruntent la rue.
 </t>
         </is>
       </c>
